--- a/data/case1/18/cost_1.xlsx
+++ b/data/case1/18/cost_1.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.68448842270863</v>
+        <v>161.68476735272179</v>
       </c>
       <c r="B1" s="0">
-        <v>5.8829802074699122</v>
+        <v>5.1491390811948534</v>
       </c>
       <c r="C1" s="0">
-        <v>2.4951076320939336</v>
+        <v>3.8160469667318981</v>
       </c>
     </row>
   </sheetData>
